--- a/frontend-cemos/public/assets/content/direito/3-carta-nacoes-unidas/script/fc1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/3-carta-nacoes-unidas/script/fc1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o primeiro propósito das Nações Unidas, conforme o Artigo 1?</t>
+          <t>Qual princípio rege a Organização em relação aos seus Membros, segundo o Artigo 2?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão.</t>
+          <t>A Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -529,18 +529,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da cooperação internacional que as Nações Unidas buscam resolver?</t>
+          <t>Qual é a obrigação dos Membros da ONU referente ao uso da força em suas relações internacionais?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Problemas internacionais de caráter econômico, social, cultural ou humanitário, e promover o respeito aos direitos humanos e às liberdades fundamentais.</t>
+          <t>Deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 1</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o princípio fundamental que rege a Organização e seus Membros, conforme o Artigo 2 (1)?</t>
+          <t>Quantos membros compõem o Conselho de Segurança das Nações Unidas?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>Quinze Membros das Nações Unidas.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -585,12 +585,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a obrigação dos Membros da ONU referente ao uso da força em suas relações internacionais?</t>
+          <t>Quem são os membros permanentes do Conselho de Segurança?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do norte e os Estados Unidos da América.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -613,18 +613,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Em que situação o princípio de não intervenção da Carta nas jurisdições internas dos Estados não se aplica?</t>
+          <t>Por quanto tempo os membros não permanentes do Conselho de Segurança são eleitos?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
+          <t>Por um período de dois anos.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 2</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De quantos membros é composto o Conselho de Segurança das Nações Unidas?</t>
+          <t>Quantos votos afirmativos são necessários para tomar decisões do Conselho de Segurança em questões processuais?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>De quinze Membros das Nações Unidas.</t>
+          <t>Nove Membros.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -669,12 +669,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quais são os cinco membros permanentes do Conselho de Segurança, segundo o Artigo 23?</t>
+          <t>Quais são alguns dos meios pacíficos que as partes em uma controvérsia devem buscar, antes de tudo?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América.</t>
+          <t>Negociação, inquérito, mediação, conciliação, arbitragem, solução judicial, recurso a entidades ou acordos regionais, ou a qualquer outro meio pacífico à sua escolha.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -697,18 +697,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Por quanto tempo os membros não permanentes do Conselho de Segurança são eleitos?</t>
+          <t>Qual a primeira ação que o Conselho de Segurança determina sob o Capítulo VII, conforme o Artigo 39?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Por um período de dois anos.</t>
+          <t>A existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 3</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -725,18 +725,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual é a principal responsabilidade conferida ao Conselho de Segurança pelos Membros da ONU?</t>
+          <t>Quais sanções o Conselho de Segurança pode impor sob o Artigo 41, sem envolver forças armadas?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A manutenção da paz e da segurança internacionais.</t>
+          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação (ferroviários, marítimos, aéreos, postais, telegráficos, radiofônicos, ou de outra qualquer espécie) e o rompimento das relações diplomáticas.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -753,18 +753,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com quais elementos da Organização?</t>
+          <t>O que o Conselho de Segurança pode levar a efeito se as medidas não militares (Art. 41) forem inadequadas?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>De acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>A ação que julgar necessária para manter ou restabelecer a paz e a segurança internacionais, por meio de forças aéreas, navais ou terrestres.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O que os Membros das Nações Unidas concordam em fazer em relação às decisões do Conselho de Segurança, conforme o Artigo 25?</t>
+          <t>Qual o objetivo dos Membros da ONU ao manterem contingentes das forças aéreas nacionais imediatamente utilizáveis, conforme o Artigo 45?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
+          <t>Habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -809,18 +809,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantos votos cada membro do Conselho de Segurança possui?</t>
+          <t>Quem compõe a Comissão de Estado Maior da ONU?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Um voto.</t>
+          <t>Os Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -837,18 +837,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quantos votos afirmativos são necessários para tomar decisões do Conselho de Segurança em questões processuais?</t>
+          <t>O que o Artigo 51 da Carta da ONU preserva?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nove Membros.</t>
+          <t>O direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -865,18 +865,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual a condição de voto para que as decisões do Conselho de Segurança sejam tomadas em "todos os outros assuntos" (não processuais)?</t>
+          <t>Qual é o primeiro propósito das Nações Unidas, conforme o Artigo 1?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
+          <t>Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -893,18 +893,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Quais são alguns dos meios pacíficos que as partes em uma controvérsia devem buscar para uma solução, conforme o Capítulo VI?</t>
+          <t>Qual é o objetivo da cooperação internacional que as Nações Unidas buscam resolver?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Negociação, inquérito, mediação, conciliação, arbitragem ou solução judicial.</t>
+          <t>Problemas internacionais de caráter econômico, social, cultural ou humanitário, e promover o respeito aos direitos humanos e às liberdades fundamentais.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -921,18 +921,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança pode fazer para determinar se uma controvérsia é uma ameaça à paz?</t>
+          <t>Qual é o princípio fundamental que rege a Organização e seus Membros, conforme o Artigo 2?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Poderá investigar sobre qualquer controvérsia ou situação suscetível de provocar atritos entre as Nações.</t>
+          <t>A Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -949,18 +949,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual é a finalidade do Artigo 33, que trata da solução pacífica de controvérsias?</t>
+          <t>Qual é a obrigação dos Membros da ONU referente ao uso da força em suas relações internacionais?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Assegurar que as controvérsias não constituam uma ameaça à paz e à segurança internacionais.</t>
+          <t>Deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 8</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança determina em primeiro lugar sob o Capítulo VII, conforme o Artigo 39?</t>
+          <t>Em que situação o princípio de não intervenção da Carta nas jurisdições internas dos Estados não se aplica?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
+          <t>Não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1005,18 +1005,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança pode convidar as partes interessadas a aceitar, conforme o Artigo 40, a fim de evitar que a situação se agrave?</t>
+          <t>De quantos membros é composto o Conselho de Segurança das Nações Unidas?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Medidas provisórias que lhe pareçam necessárias ou aconselháveis.</t>
+          <t>De quinze Membros das Nações Unidas.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1033,18 +1033,18 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Quais tipos de sanções o Conselho de Segurança pode impor sob o Artigo 41, sem o emprego de forças armadas?</t>
+          <t>Quais são os cinco membros permanentes do Conselho de Segurança, segundo o Artigo 23?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação (ferroviários, marítimos, aéreos, etc.) e o rompimento das relações diplomáticas.</t>
+          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 10</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1061,18 +1061,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Quando o Conselho de Segurança pode levar a efeito uma ação militar (forças aéreas, navais ou terrestres)?</t>
+          <t>Qual é a principal responsabilidade conferida ao Conselho de Segurança pelos Membros da ONU?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No caso de considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas.</t>
+          <t>A manutenção da paz e da segurança internacionais.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1089,18 +1089,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O que as ações militares sob o Artigo 42 podem compreender?</t>
+          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com quais elementos da Organização?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
+          <t>De acordo com os Propósitos e Princípios das Nações Unidas.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1117,18 +1117,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Qual é o compromisso dos Membros das Nações Unidas para a manutenção da paz, conforme o Artigo 43?</t>
+          <t>O que os Membros das Nações Unidas concordam em fazer em relação às decisões do Conselho de Segurança, conforme o Artigo 25?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Proporcionar ao Conselho de Segurança, a seu pedido e de conformidade com acordos especiais, forças armadas, assistência e facilidades, inclusive direitos de passagem.</t>
+          <t>Concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 11</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1145,18 +1145,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O que deve ser determinado no acordo ou acordos especiais entre o Conselho de Segurança e os Membros?</t>
+          <t>Quantos votos cada membro do Conselho de Segurança possui?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O número e tipo das forças, seu grau de preparação e sua localização geral, bem como a natureza das facilidades e da assistência.</t>
+          <t>Um voto.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Quem o Conselho deve convidar a participar das decisões, antes de solicitar forças armadas a um Membro nele não representado?</t>
+          <t>Quantos votos afirmativos são necessários para tomar decisões do Conselho de Segurança em questões processuais?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O referido Membro, se este assim o desejar.</t>
+          <t>Nove Membros.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1201,18 +1201,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qual a finalidade de os Membros da ONU manterem contingentes das forças aéreas nacionais imediatamente utilizáveis, conforme o Artigo 45?</t>
+          <t>Qual a condição de voto para que as decisões do Conselho de Segurança sejam tomadas em "todos os outros assuntos" (não processuais)?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
+          <t>O voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 13</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1229,18 +1229,18 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Qual é o papel da Comissão de Estado Maior, conforme o Artigo 47?</t>
+          <t>Quais são alguns dos meios pacíficos que as partes em uma controvérsia devem buscar para uma solução, conforme o Capítulo VI?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças, regulamentação de armamentos e desarmamento.</t>
+          <t>Negociação, inquérito, mediação, conciliação, arbitragem ou solução judicial.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1257,18 +1257,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Quem compõe a Comissão de Estado Maior?</t>
+          <t>O que o Conselho de Segurança pode fazer para determinar se uma controvérsia é uma ameaça à paz?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Os Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+          <t>Poderá investigar sobre qualquer controvérsia ou situação suscetível de provocar atritos entre as Nações.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 14</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1285,18 +1285,18 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quem levará a efeito a ação necessária ao cumprimento das decisões do Conselho de Segurança para a manutenção da paz?</t>
+          <t>Qual é a finalidade do Artigo 33, que trata da solução pacífica de controvérsias?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Todos os Membros das Nações Unidas ou alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
+          <t>Assegurar que as controvérsias não constituam uma ameaça à paz e à segurança internacionais.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1313,18 +1313,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>O que os Membros das Nações Unidas devem fazer para a execução das medidas determinadas pelo Conselho de Segurança, conforme o Artigo 49?</t>
+          <t>O que o Conselho de Segurança determina em primeiro lugar sob o Capítulo VII, conforme o Artigo 39?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Prestar assistência mútua.</t>
+          <t>A existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1341,18 +1341,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>O que a Carta da ONU preserva em relação ao uso da força, conforme o Artigo 51?</t>
+          <t>O que o Conselho de Segurança pode convidar as partes interessadas a aceitar, conforme o Artigo 40, a fim de evitar que a situação se agrave?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
+          <t>Medidas provisórias que lhe pareçam necessárias ou aconselháveis.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1369,21 +1369,357 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Até quando o direito de legítima defesa individual ou coletiva é preservado?</t>
+          <t>Quais tipos de sanções o Conselho de Segurança pode impor sob o Artigo 41, sem o emprego de forças armadas?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
+          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação (ferroviários, marítimos, aéreos, etc.) e o rompimento das relações diplomáticas.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Quando o Conselho de Segurança pode levar a efeito uma ação militar (forças aéreas, navais ou terrestres)?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No caso de considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>O que as ações militares sob o Artigo 42 podem compreender?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Qual é o compromisso dos Membros das Nações Unidas para a manutenção da paz, conforme o Artigo 43?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Proporcionar ao Conselho de Segurança, a seu pedido e de conformidade com acordos especiais, forças armadas, assistência e facilidades, inclusive direitos de passagem.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pág 11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>O que deve ser determinado no acordo ou acordos especiais entre o Conselho de Segurança e os Membros?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>O número e tipo das forças, seu grau de preparação e sua localização geral, bem como a natureza das facilidades e da assistência.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Quem o Conselho deve convidar a participar das decisões, antes de solicitar forças armadas a um Membro nele não representado?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>O referido Membro, se este assim o desejar.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Qual a finalidade de os Membros da ONU manterem contingentes das forças aéreas nacionais imediatamente utilizáveis, conforme o Artigo 45?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Qual é o papel da Comissão de Estado Maior, conforme o Artigo 47?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças, regulamentação de armamentos e desarmamento.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Quem compõe a Comissão de Estado Maior?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Os Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Quem levará a efeito a ação necessária ao cumprimento das decisões do Conselho de Segurança para a manutenção da paz?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Todos os Membros das Nações Unidas ou alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>O que os Membros das Nações Unidas devem fazer para a execução das medidas determinadas pelo Conselho de Segurança, conforme o Artigo 49?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Prestar assistência mútua.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>O que a Carta da ONU preserva em relação ao uso da força, conforme o Artigo 51?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>O direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Pág 16</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Carta das Nações Unidas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Até quando o direito de legítima defesa individual ou coletiva é preservado?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Carta das Nações Unidas</t>
         </is>
